--- a/訓練資料欄位說明_V1.xlsx
+++ b/訓練資料欄位說明_V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janice\Other\競賽\玉山_2022\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janice\Other\競賽\玉山_2022\GitHub\Esun_AML_SAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF58D6B-A7F7-461E-A105-EF3F777D50AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1AA050-15FD-42AA-A503-8A759BBEE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="428">
   <si>
     <t>訓練資料欄位名稱</t>
   </si>
@@ -1657,6 +1657,10 @@
   </si>
   <si>
     <t>交易編號</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>外匯交易的匯出方式</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2862,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3452,7 +3456,9 @@
       <c r="E37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
